--- a/Networking/Paramiko/input.xlsx
+++ b/Networking/Paramiko/input.xlsx
@@ -1811,7 +1811,15 @@
           <t>reachable</t>
         </is>
       </c>
-      <c r="D26" s="11" t="n"/>
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t>Sh int GigabitEthernet0/0/0 | I rate
+  Queueing strategy: fifo
+  30 second input rate 8000 bits/sec, 5 packets/sec
+  30 second output rate 9000 bits/sec, 3 packets/sec
+psin4612#</t>
+        </is>
+      </c>
       <c r="E26" s="11" t="n"/>
       <c r="F26" s="11" t="inlineStr">
         <is>
@@ -1849,7 +1857,15 @@
           <t>reachable</t>
         </is>
       </c>
-      <c r="D27" s="11" t="n"/>
+      <c r="D27" s="11" t="inlineStr">
+        <is>
+          <t>Sh int GigabitEthernet0/0/0  | I rate
+  Queueing strategy: fifo
+  30 second input rate 3793000 bits/sec, 1002 packets/sec
+  30 second output rate 6236000 bits/sec, 1009 packets/sec
+psin4613#</t>
+        </is>
+      </c>
       <c r="E27" s="11" t="n"/>
       <c r="F27" s="11" t="inlineStr">
         <is>
@@ -1887,7 +1903,15 @@
           <t>reachable</t>
         </is>
       </c>
-      <c r="D28" s="11" t="n"/>
+      <c r="D28" s="11" t="inlineStr">
+        <is>
+          <t>Sh int  GigabitEthernet0/2 | I rate
+  Queueing strategy: Class-based queueing
+  5 minute input rate 0 bits/sec, 0 packets/sec
+  5 minute output rate 0 bits/sec, 0 packets/sec
+PQUT037#</t>
+        </is>
+      </c>
       <c r="E28" s="11" t="n"/>
       <c r="F28" s="11" t="inlineStr">
         <is>
